--- a/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,64%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 13,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,65; 9,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 21,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; 14,93</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,15%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 6,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 19,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 9,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,7; 35,0</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,1%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 2,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 7,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 3,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 11,34</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 7,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 8,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 8,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 12,27</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 9,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 13,55</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 2,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 11,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 2,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 15,12</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 8,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 12,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 13,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 9,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 21,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 19,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 9,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 35,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 11,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 12,27</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,12</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -989,14 +989,74 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1006,6 +1066,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
